--- a/Data/raw_excel/FULL_COMMUNITY.xlsx
+++ b/Data/raw_excel/FULL_COMMUNITY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandonhendrickson/Documents/Github_Projects/Vernal_Pool_CommunityDiversity/Data/raw_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D92B2A-5341-A643-A36E-6331790F0F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5260B6EE-F61B-1A4D-BC71-1DD72B6D7E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FULL_COMMUNITY" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="592">
   <si>
     <t>Clusters</t>
   </si>
@@ -1757,6 +1757,60 @@
   <si>
     <t>C3_M</t>
   </si>
+  <si>
+    <t>A1_B</t>
+  </si>
+  <si>
+    <t>A1_U</t>
+  </si>
+  <si>
+    <t>A2_B</t>
+  </si>
+  <si>
+    <t>A2_U</t>
+  </si>
+  <si>
+    <t>A3_B</t>
+  </si>
+  <si>
+    <t>A3_U</t>
+  </si>
+  <si>
+    <t>B1_B</t>
+  </si>
+  <si>
+    <t>B1_U</t>
+  </si>
+  <si>
+    <t>B2_B</t>
+  </si>
+  <si>
+    <t>B2_U</t>
+  </si>
+  <si>
+    <t>B3_B</t>
+  </si>
+  <si>
+    <t>B3_U</t>
+  </si>
+  <si>
+    <t>C1_B</t>
+  </si>
+  <si>
+    <t>C1_U</t>
+  </si>
+  <si>
+    <t>C2_B</t>
+  </si>
+  <si>
+    <t>C2_U</t>
+  </si>
+  <si>
+    <t>C3_B</t>
+  </si>
+  <si>
+    <t>C3_U</t>
+  </si>
 </sst>
 </file>
 
@@ -2764,11 +2818,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BW520"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A495" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F513" sqref="F513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="47" max="47" width="30" customWidth="1"/>
+    <col min="50" max="50" width="24.83203125" customWidth="1"/>
+    <col min="58" max="58" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -102901,9 +102960,8 @@
       </c>
     </row>
     <row r="494" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A494" t="str">
-        <f>B494&amp;""&amp;C494&amp;"_"&amp;D494</f>
-        <v>A1_B</v>
+      <c r="A494" t="s">
+        <v>574</v>
       </c>
       <c r="B494" t="s">
         <v>67</v>
@@ -103042,9 +103100,8 @@
       </c>
     </row>
     <row r="495" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A495" t="str">
-        <f t="shared" ref="A495:A520" si="0">B495&amp;""&amp;C495&amp;"_"&amp;D495</f>
-        <v>A1_E</v>
+      <c r="A495" t="s">
+        <v>547</v>
       </c>
       <c r="B495" t="s">
         <v>67</v>
@@ -103183,9 +103240,8 @@
       </c>
     </row>
     <row r="496" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A496" t="str">
-        <f t="shared" si="0"/>
-        <v>A1_U</v>
+      <c r="A496" t="s">
+        <v>575</v>
       </c>
       <c r="B496" t="s">
         <v>67</v>
@@ -103324,9 +103380,8 @@
       </c>
     </row>
     <row r="497" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A497" t="str">
-        <f t="shared" si="0"/>
-        <v>A2_B</v>
+      <c r="A497" t="s">
+        <v>576</v>
       </c>
       <c r="B497" t="s">
         <v>67</v>
@@ -103465,9 +103520,8 @@
       </c>
     </row>
     <row r="498" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A498" t="str">
-        <f t="shared" si="0"/>
-        <v>A2_E</v>
+      <c r="A498" t="s">
+        <v>550</v>
       </c>
       <c r="B498" t="s">
         <v>67</v>
@@ -103606,9 +103660,8 @@
       </c>
     </row>
     <row r="499" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A499" t="str">
-        <f t="shared" si="0"/>
-        <v>A2_U</v>
+      <c r="A499" t="s">
+        <v>577</v>
       </c>
       <c r="B499" t="s">
         <v>67</v>
@@ -103747,9 +103800,8 @@
       </c>
     </row>
     <row r="500" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A500" t="str">
-        <f t="shared" si="0"/>
-        <v>A3_B</v>
+      <c r="A500" t="s">
+        <v>578</v>
       </c>
       <c r="B500" t="s">
         <v>67</v>
@@ -103888,9 +103940,8 @@
       </c>
     </row>
     <row r="501" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A501" t="str">
-        <f t="shared" si="0"/>
-        <v>A3_E</v>
+      <c r="A501" t="s">
+        <v>553</v>
       </c>
       <c r="B501" t="s">
         <v>67</v>
@@ -104029,9 +104080,8 @@
       </c>
     </row>
     <row r="502" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A502" t="str">
-        <f t="shared" si="0"/>
-        <v>A3_U</v>
+      <c r="A502" t="s">
+        <v>579</v>
       </c>
       <c r="B502" t="s">
         <v>67</v>
@@ -104170,9 +104220,8 @@
       </c>
     </row>
     <row r="503" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A503" t="str">
-        <f t="shared" si="0"/>
-        <v>B1_B</v>
+      <c r="A503" t="s">
+        <v>580</v>
       </c>
       <c r="B503" t="s">
         <v>68</v>
@@ -104311,9 +104360,8 @@
       </c>
     </row>
     <row r="504" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A504" t="str">
-        <f t="shared" si="0"/>
-        <v>B1_E</v>
+      <c r="A504" t="s">
+        <v>556</v>
       </c>
       <c r="B504" t="s">
         <v>68</v>
@@ -104452,9 +104500,8 @@
       </c>
     </row>
     <row r="505" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A505" t="str">
-        <f t="shared" si="0"/>
-        <v>B1_U</v>
+      <c r="A505" t="s">
+        <v>581</v>
       </c>
       <c r="B505" t="s">
         <v>68</v>
@@ -104593,9 +104640,8 @@
       </c>
     </row>
     <row r="506" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A506" t="str">
-        <f t="shared" si="0"/>
-        <v>B2_B</v>
+      <c r="A506" t="s">
+        <v>582</v>
       </c>
       <c r="B506" t="s">
         <v>68</v>
@@ -104734,9 +104780,8 @@
       </c>
     </row>
     <row r="507" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A507" t="str">
-        <f t="shared" si="0"/>
-        <v>B2_E</v>
+      <c r="A507" t="s">
+        <v>559</v>
       </c>
       <c r="B507" t="s">
         <v>68</v>
@@ -104875,9 +104920,8 @@
       </c>
     </row>
     <row r="508" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A508" t="str">
-        <f t="shared" si="0"/>
-        <v>B2_U</v>
+      <c r="A508" t="s">
+        <v>583</v>
       </c>
       <c r="B508" t="s">
         <v>68</v>
@@ -105016,9 +105060,8 @@
       </c>
     </row>
     <row r="509" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A509" t="str">
-        <f t="shared" si="0"/>
-        <v>B3_B</v>
+      <c r="A509" t="s">
+        <v>584</v>
       </c>
       <c r="B509" t="s">
         <v>68</v>
@@ -105157,9 +105200,8 @@
       </c>
     </row>
     <row r="510" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A510" t="str">
-        <f t="shared" si="0"/>
-        <v>B3_E</v>
+      <c r="A510" t="s">
+        <v>562</v>
       </c>
       <c r="B510" t="s">
         <v>68</v>
@@ -105298,9 +105340,8 @@
       </c>
     </row>
     <row r="511" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A511" t="str">
-        <f t="shared" si="0"/>
-        <v>B3_U</v>
+      <c r="A511" t="s">
+        <v>585</v>
       </c>
       <c r="B511" t="s">
         <v>68</v>
@@ -105439,9 +105480,8 @@
       </c>
     </row>
     <row r="512" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A512" t="str">
-        <f t="shared" si="0"/>
-        <v>C1_B</v>
+      <c r="A512" t="s">
+        <v>586</v>
       </c>
       <c r="B512" t="s">
         <v>69</v>
@@ -105580,9 +105620,8 @@
       </c>
     </row>
     <row r="513" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A513" t="str">
-        <f t="shared" si="0"/>
-        <v>C1_E</v>
+      <c r="A513" t="s">
+        <v>565</v>
       </c>
       <c r="B513" t="s">
         <v>69</v>
@@ -105721,9 +105760,8 @@
       </c>
     </row>
     <row r="514" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A514" t="str">
-        <f t="shared" si="0"/>
-        <v>C1_U</v>
+      <c r="A514" t="s">
+        <v>587</v>
       </c>
       <c r="B514" t="s">
         <v>69</v>
@@ -105862,9 +105900,8 @@
       </c>
     </row>
     <row r="515" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A515" t="str">
-        <f t="shared" si="0"/>
-        <v>C2_B</v>
+      <c r="A515" t="s">
+        <v>588</v>
       </c>
       <c r="B515" t="s">
         <v>69</v>
@@ -106003,9 +106040,8 @@
       </c>
     </row>
     <row r="516" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A516" t="str">
-        <f t="shared" si="0"/>
-        <v>C2_E</v>
+      <c r="A516" t="s">
+        <v>568</v>
       </c>
       <c r="B516" t="s">
         <v>69</v>
@@ -106144,9 +106180,8 @@
       </c>
     </row>
     <row r="517" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A517" t="str">
-        <f t="shared" si="0"/>
-        <v>C2_U</v>
+      <c r="A517" t="s">
+        <v>589</v>
       </c>
       <c r="B517" t="s">
         <v>69</v>
@@ -106285,9 +106320,8 @@
       </c>
     </row>
     <row r="518" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A518" t="str">
-        <f t="shared" si="0"/>
-        <v>C3_B</v>
+      <c r="A518" t="s">
+        <v>590</v>
       </c>
       <c r="B518" t="s">
         <v>69</v>
@@ -106426,9 +106460,8 @@
       </c>
     </row>
     <row r="519" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A519" t="str">
-        <f t="shared" si="0"/>
-        <v>C3_E</v>
+      <c r="A519" t="s">
+        <v>571</v>
       </c>
       <c r="B519" t="s">
         <v>69</v>
@@ -106567,9 +106600,8 @@
       </c>
     </row>
     <row r="520" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A520" t="str">
-        <f t="shared" si="0"/>
-        <v>C3_U</v>
+      <c r="A520" t="s">
+        <v>591</v>
       </c>
       <c r="B520" t="s">
         <v>69</v>
@@ -106716,7 +106748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
